--- a/Flow_shop/data.xlsx
+++ b/Flow_shop/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\flow_shop\Operational-Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\Operational-Research\Flow_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74AE39D-99A1-4919-BACA-5A3777892DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4E92C1-95B2-4123-A51B-23A071892E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="p" sheetId="2" r:id="rId2"/>
-    <sheet name="omega" sheetId="3" r:id="rId3"/>
+    <sheet name="lambda" sheetId="3" r:id="rId3"/>
     <sheet name="E" sheetId="4" r:id="rId4"/>
     <sheet name="m" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,16 +160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>229020</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>602400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4089</xdr:rowOff>
+      <xdr:rowOff>103149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -192,8 +192,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="15240"/>
+          <a:off x="5516880" y="114300"/>
           <a:ext cx="3010320" cy="2000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>479223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F80416-FCCF-18F7-5FCD-CA27660C5E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4411980" y="0"/>
+          <a:ext cx="7649643" cy="3096057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,15 +716,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -702,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,12 +778,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -753,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -767,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -781,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -795,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -809,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -823,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -848,12 +892,12 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -861,7 +905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -869,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -877,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -885,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -893,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -901,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -909,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -917,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -925,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -933,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -941,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -949,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -957,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -965,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -973,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -981,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -989,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -997,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1016,12 +1060,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1037,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1045,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1053,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1061,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1069,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1077,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1085,7 +1129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1093,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1112,12 +1156,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1133,7 +1177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1141,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>

--- a/Flow_shop/data.xlsx
+++ b/Flow_shop/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\Operational-Research\Flow_shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\Operational-Research\Flow_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4E92C1-95B2-4123-A51B-23A071892E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11C4B9-8908-4B39-A12D-9FE22F7500DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -85,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,15 +714,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -746,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -757,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,29 +775,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D00C24-55F6-4CC6-9B93-D53F6D03E2A2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -811,9 +809,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
@@ -825,9 +823,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -839,9 +837,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -853,9 +851,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>7</v>
@@ -867,9 +865,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -891,13 +889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEFD257-B265-4A50-A4C8-D8345372C156}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -913,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -921,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -929,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -937,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -945,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -953,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -961,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -969,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -977,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -985,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -993,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1063,9 +1061,9 @@
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1089,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1159,9 +1157,9 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1177,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>

--- a/Flow_shop/data.xlsx
+++ b/Flow_shop/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\Operational-Research\Flow_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11C4B9-8908-4B39-A12D-9FE22F7500DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02871B-DC76-48C4-B820-8C3FEA7B36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,14 +129,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7447A0EF-C5E8-4EA3-9B55-B9E7A75B9756}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -741,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -773,10 +786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D00C24-55F6-4CC6-9B93-D53F6D03E2A2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -876,6 +889,20 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
     </row>

--- a/Flow_shop/data.xlsx
+++ b/Flow_shop/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\Operational-Research\Flow_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02871B-DC76-48C4-B820-8C3FEA7B36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDDD82A-210F-4C7E-B40F-A66BF2259746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
   </bookViews>
@@ -106,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,27 +129,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,13 +302,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>503340</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>65049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -754,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -786,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D00C24-55F6-4CC6-9B93-D53F6D03E2A2}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -893,17 +880,619 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1506,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1085,7 +1674,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
